--- a/biology/Médecine/Jerusha_Jhirad/Jerusha_Jhirad.xlsx
+++ b/biology/Médecine/Jerusha_Jhirad/Jerusha_Jhirad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jerusha Jhirad, née en 1891, morte le 2 juin 1984 à Shivamogga, dans le Karnataka, est une médecin indienne.
-Elle était membre de la communauté juive des Bene Israël. Elle fut la première femme à recevoir une bourse du gouvernement indien pour aller poursuivre ses études à l'étranger. Elle fut médecin-chef de l'hôpital de Cama à Mumbai[1].
+Elle était membre de la communauté juive des Bene Israël. Elle fut la première femme à recevoir une bourse du gouvernement indien pour aller poursuivre ses études à l'étranger. Elle fut médecin-chef de l'hôpital de Cama à Mumbai.
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Jhirad est née à Shivamogga, dans le Karnataka[2]. Elle fut membre de la communauté juive Bene en Israël[3],[4].
-Formation
-Elle a fréquenté le lycée de Pune[2], puis le Grant Medical College de Bombay, où elle a obtenu une licence en médecine et chirurgie avec un diplôme L.M.S. en 1912[5]. Elle a été la première femme à se voir accorder une bourse par le gouvernement indien pour étudier à l'étranger. En Angleterre, elle a étudié à l'École de médecine pour femmes de Londres (basée au Royal Free Hospital), s'est qualifiée comme bachelière en médecine et en chirurgie (MB BS) de l'Université de Londres en 1917[6] et a obtenu un doctorat (M.D.) en 1919 en maïeutique. Elle s'est spécialisée en obstétrique et en gynécologie[5] et a travaillé comme chirurgienne à l'hôpital Elizabeth Garrett Anderson de Londres en 1917 et à la maternité de Birmingham en 1918 avant de retourner en Inde[5].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jhirad est née à Shivamogga, dans le Karnataka. Elle fut membre de la communauté juive Bene en Israël,.
 </t>
         </is>
       </c>
@@ -543,13 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fréquenté le lycée de Pune, puis le Grant Medical College de Bombay, où elle a obtenu une licence en médecine et chirurgie avec un diplôme L.M.S. en 1912. Elle a été la première femme à se voir accorder une bourse par le gouvernement indien pour étudier à l'étranger. En Angleterre, elle a étudié à l'École de médecine pour femmes de Londres (basée au Royal Free Hospital), s'est qualifiée comme bachelière en médecine et en chirurgie (MB BS) de l'Université de Londres en 1917 et a obtenu un doctorat (M.D.) en 1919 en maïeutique. Elle s'est spécialisée en obstétrique et en gynécologie et a travaillé comme chirurgienne à l'hôpital Elizabeth Garrett Anderson de Londres en 1917 et à la maternité de Birmingham en 1918 avant de retourner en Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jerusha_Jhirad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jerusha_Jhirad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1966, elle est décorée de la Padma Shri.
-Le cratère vénusien Jhirad a été nommé en son honneur [7], [8].
+Le cratère vénusien Jhirad a été nommé en son honneur , .
 </t>
         </is>
       </c>
